--- a/biology/Botanique/Tricalysia_coriacea/Tricalysia_coriacea.xlsx
+++ b/biology/Botanique/Tricalysia_coriacea/Tricalysia_coriacea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tricalysia coriacea est une espèce de plantes de la famille des Rubiaceae.
 </t>
@@ -511,20 +523,22 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (12 avril 2019)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (12 avril 2019) :
 sous-espèce Tricalysia coriacea subsp. angustifolia
 sous-espèce Tricalysia coriacea subsp. coriacea
 sous-espèce Tricalysia coriacea subsp. nyassae
-Selon World Checklist of Selected Plant Families (WCSP)  (12 avril 2019)[4] :
+Selon World Checklist of Selected Plant Families (WCSP)  (12 avril 2019) :
 sous-espèce Tricalysia coriacea subsp. angustifolia (J.G.García) Robbr. (1987)
 sous-espèce Tricalysia coriacea subsp. coriacea
 sous-espèce Tricalysia coriacea subsp. nyassae (Hiern) Bridson (2003)
-Selon The Plant List            (12 avril 2019)[1] :
+Selon The Plant List            (12 avril 2019) :
 sous-espèce Tricalysia coriacea subsp. angustifolia (J.G.García) Robbr.
 sous-espèce Tricalysia coriacea subsp. nyassae (Hiern) Bridson
-Selon Tropicos                                           (12 avril 2019)[5] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (12 avril 2019) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Tricalysia coriacea subsp. angustifolia (J.G. García) Robbr.
 sous-espèce Tricalysia coriacea subsp. coriacea
 sous-espèce Tricalysia coriacea subsp. nyassae (Hiern) Bridson</t>
@@ -555,7 +569,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Flora of Tropical Africa 3: 120. 1877.</t>
         </is>
